--- a/results/mp/logistic/corona/confidence/126/0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,42 +40,45 @@
     <t>name</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>died</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -88,9 +91,6 @@
     <t>stop</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -100,12 +100,18 @@
     <t>the</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -115,127 +121,127 @@
     <t>friend</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>wish</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>care</t>
+    <t>important</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
+    <t>helping</t>
   </si>
   <si>
     <t>increase</t>
@@ -244,19 +250,10 @@
     <t>protect</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>for</t>
+    <t>you</t>
   </si>
   <si>
     <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -614,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +680,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -725,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -733,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7465753424657534</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C4">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D4">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7368421052631579</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5882352941176471</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5526315789473685</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,10 +983,10 @@
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8407310704960835</v>
+        <v>0.835509138381201</v>
       </c>
       <c r="L10">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M10">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4232804232804233</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C11">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3255813953488372</v>
+        <v>0.4021164021164021</v>
       </c>
       <c r="C12">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>348</v>
+        <v>113</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.8076923076923077</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3050847457627119</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2745098039215687</v>
+        <v>0.3217054263565892</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.8018867924528302</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2266666666666667</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.7926829268292683</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L15">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M15">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1610738255033557</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.7878787878787878</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1380,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1166666666666667</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>318</v>
+        <v>129</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>0.7777777777777778</v>
@@ -1433,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.07142857142857142</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>234</v>
+        <v>321</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,37 +1480,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006734006734006734</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2360</v>
+        <v>238</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.775</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L19">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,37 +1530,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005152979066022544</v>
+        <v>0.005798969072164949</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F20">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.7727272727272727</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1575,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,13 +1580,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.004171494785631518</v>
+        <v>0.003474635163307853</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0.42</v>
@@ -1601,19 +1598,19 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>4297</v>
+        <v>4302</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.7692307692307693</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1625,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,63 +1630,87 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002911490683229814</v>
+        <v>0.003297769156159069</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>0.37</v>
+      </c>
+      <c r="F22">
+        <v>0.63</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>5138</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22">
+        <v>0.75625</v>
+      </c>
+      <c r="L22">
+        <v>121</v>
+      </c>
+      <c r="M22">
+        <v>121</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E22">
+      <c r="B23">
+        <v>0.002607823470411234</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
         <v>0.46</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>0.54</v>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>5137</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.7578125</v>
-      </c>
-      <c r="L22">
-        <v>97</v>
-      </c>
-      <c r="M22">
-        <v>97</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>4972</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>0.7464788732394366</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L23">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1701,21 +1722,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>0.7446808510638298</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1727,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.7291666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1753,21 +1774,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.7272727272727273</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1784,16 +1805,16 @@
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>0.7037037037037037</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1805,21 +1826,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>0.6984126984126984</v>
+        <v>0.68</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1831,21 +1852,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>0.6785714285714286</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1857,21 +1878,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K30">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1883,21 +1904,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>0.6323529411764706</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L31">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1909,21 +1930,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>0.6285714285714286</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1935,21 +1956,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>0.6279069767441861</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1961,21 +1982,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1987,21 +2008,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K35">
-        <v>0.625</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2013,21 +2034,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2039,21 +2060,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K37">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2065,21 +2086,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K38">
-        <v>0.5957446808510638</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L38">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2091,21 +2112,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K39">
-        <v>0.5661016949152542</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L39">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2117,21 +2138,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>128</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K40">
-        <v>0.5652173913043478</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2143,21 +2164,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K41">
-        <v>0.5564853556485355</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L41">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="M41">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2169,21 +2190,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K42">
-        <v>0.4857142857142857</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L42">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2195,47 +2216,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K43">
-        <v>0.4848484848484849</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L43">
+        <v>17</v>
+      </c>
+      <c r="M43">
+        <v>17</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>16</v>
-      </c>
-      <c r="M43">
-        <v>16</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>17</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K44">
-        <v>0.4047619047619048</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2247,21 +2268,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K45">
-        <v>0.3932584269662922</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L45">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2273,21 +2294,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K46">
-        <v>0.3529411764705883</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2299,21 +2320,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K47">
-        <v>0.3111111111111111</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2325,21 +2346,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K48">
-        <v>0.2948717948717949</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2351,21 +2372,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K49">
-        <v>0.2876712328767123</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2377,21 +2398,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K50">
-        <v>0.2372881355932203</v>
+        <v>0.2191780821917808</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2403,21 +2424,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K51">
-        <v>0.203125</v>
+        <v>0.01416666666666667</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2429,137 +2450,33 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>51</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K52">
-        <v>0.008176100628930818</v>
+        <v>0.006376594148537134</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N52">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="O52">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K53">
-        <v>0.005247376311844078</v>
-      </c>
-      <c r="L53">
-        <v>14</v>
-      </c>
-      <c r="M53">
-        <v>19</v>
-      </c>
-      <c r="N53">
-        <v>0.74</v>
-      </c>
-      <c r="O53">
-        <v>0.26</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K54">
-        <v>0.003016241299303944</v>
-      </c>
-      <c r="L54">
-        <v>13</v>
-      </c>
-      <c r="M54">
-        <v>31</v>
-      </c>
-      <c r="N54">
-        <v>0.42</v>
-      </c>
-      <c r="O54">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>4297</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K55">
-        <v>0.00300782033286545</v>
-      </c>
-      <c r="L55">
-        <v>15</v>
-      </c>
-      <c r="M55">
-        <v>24</v>
-      </c>
-      <c r="N55">
-        <v>0.62</v>
-      </c>
-      <c r="O55">
-        <v>0.38</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>4972</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K56">
-        <v>0.002524271844660194</v>
-      </c>
-      <c r="L56">
-        <v>13</v>
-      </c>
-      <c r="M56">
-        <v>28</v>
-      </c>
-      <c r="N56">
-        <v>0.46</v>
-      </c>
-      <c r="O56">
-        <v>0.54</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>5137</v>
+        <v>2649</v>
       </c>
     </row>
   </sheetData>
